--- a/Imagine-William/evidence.xlsx
+++ b/Imagine-William/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="10125" windowHeight="15540" firstSheet="18" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
   <si>
     <t>TeamName</t>
   </si>
@@ -91,43 +91,205 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>E72ED3125DCBECB42F0104F7C695343AE4D3DCDD231469EC12AA05632FE02CF2</t>
+  </si>
+  <si>
+    <t>apple</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>DADE4023D6759811B16695FB04C1C104EA18F4C65C96A5CF8AA1C0FD3A597D3F</t>
+  </si>
+  <si>
+    <t>apple1</t>
+  </si>
+  <si>
+    <t>E6030BC1F2B71521443BFFF0C1AA175900DC53939923EBA926B9146DD694BA36</t>
+  </si>
+  <si>
+    <t>apple2</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>CD8633493B1638B85298B359A3898EFE04278B575CC000292E3FACD7F2FF4199</t>
+  </si>
+  <si>
+    <t>stars1g6ll4t996l8tes24tklr5a20036ewtlms0e6jspuehc856wudapsg8mh98</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>8853FF15FFC278C6D23CD363C01D05199E55D01D9D0A2B493409FE61F8AF70F4</t>
+  </si>
+  <si>
+    <t>ibc/3EB8D12AA9C6CCB50C802D0667D071305AB7F41E9DEF5971683F35A1DA3EE520</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>AA57D26E8FD31F5603C4BA622CA78B10A55B1F3BC9DF166ACED132FE504D389D</t>
+  </si>
+  <si>
+    <t>C57437BC3D397DD21F0D9B72E4A52AF242139EC44781EA95B62774C63071F73B</t>
+  </si>
+  <si>
+    <t>ibc/E026FBB5AD8A223FD0FF6B7AE403DEEABEE972B3597156FC487C35E30FA33178</t>
+  </si>
+  <si>
+    <t>applea1</t>
+  </si>
+  <si>
+    <t>ibc/FF84AB1A7581D19D574076A5C283389900F2BAFDB9E26A485B5AF6519A8FCBE0</t>
+  </si>
+  <si>
+    <t>applea2</t>
+  </si>
+  <si>
+    <t>ibc/EC9EA1A9F0318EBA258134A4E3111646CD85EFC58D450C2C6BA30FA9CF0E4403</t>
+  </si>
+  <si>
+    <t>applea3</t>
+  </si>
+  <si>
+    <t>ibc/8A8EE49E38C506E72C41B6FE883DCB11B4964F3776497171F6729B8514C1FB21</t>
+  </si>
+  <si>
+    <t>applea4</t>
+  </si>
+  <si>
+    <t>ibc/CACE9A79E941A0C958911BDCBACA0514F6399C76C5C7480E46283440E7769B8A</t>
+  </si>
+  <si>
+    <t>applea5</t>
+  </si>
+  <si>
+    <t>ibc/11CC76281CB76E2C00FFF9DD2827300B395FC0A1C4435DFB25C8903F88082DBC</t>
+  </si>
+  <si>
+    <t>applea6</t>
+  </si>
+  <si>
+    <t>8AC5015BE7E977B6BCAB9CAA04EEAA89641ABFFC27E7366BFB7ADEB64119707B</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>E782F4DBF8BB62220C013D92D48E4FD533DBAE8E4C80E481FB726DEBEDE58770</t>
+  </si>
+  <si>
+    <t>A70C47C3026EF97D8E1C1C550C81A4EC628F7DC48328F748676E8B53F7D466A7</t>
+  </si>
+  <si>
+    <t>BB1547BB57DC9A2633886DD0869CFC7690A4CEECB11F063B192517193FB67B1A</t>
+  </si>
+  <si>
+    <t>CA44EA8ED4297D0F6221F02BD20AC79835DF779D69E6421DBEA6FC09ACAB94E7</t>
+  </si>
+  <si>
+    <t>99F7074224F45D391181A47A93C8B4F928FA585EE171ACB651E4D2240EC406EF</t>
+  </si>
+  <si>
+    <t>6B1E3D2691012D4785783A593DF926A6BE3EB42D2DF18E2EA7741F43EF722E0E</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>48B068D65EA1153331A40A2E41C48FC972968F5B8E294B5716C85B2CA97FA18F</t>
+  </si>
+  <si>
+    <t>A0EF5AF81A127D382B197E9C13AEF5FB84DA94E012DA7521868689C23A2621B4</t>
+  </si>
+  <si>
+    <t>7F430062B3EFE27230E6CABDE97DF3A54CCB983E4D7A07A151603D17E56CF19D</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>FBF40CBAD0763877B6B6FDD1D3638A36357E0CE0BB9F371E8D36C449F5096E97</t>
+  </si>
+  <si>
+    <t>B61A54C92C24200983F23464A5092E9B5E61C0C44AC7A5B330E140C52189FA66</t>
+  </si>
+  <si>
+    <t>94A47860B8C9980B25F30AAD49B280475A24B17B596E7C7EC3FD63ED61808FCA</t>
+  </si>
+  <si>
+    <t>DFD5DA6479C9AC32728B5623E56F8D8D9F6FB19F650D7CC60864DCE8303A1201</t>
+  </si>
+  <si>
+    <t>DC7C220DA00F812F3873FD0E107AF0D081D4358864B17564FD32D5A237336CA0</t>
+  </si>
+  <si>
+    <t>299D3AAA1D3E1D7317DB0E5C928BB8193F8BE8B99C40B2B143983173F74769DF</t>
+  </si>
+  <si>
+    <t>A096FF8EA652044DC5B0E92CAB535EC6E3772ED17127AA1B1975A89A350A8757</t>
+  </si>
+  <si>
+    <t>D4B05285F2B4CDA93BE852D017B94F9B2D56AB94E43C467002044A737FDCA89F</t>
+  </si>
+  <si>
+    <t>B58158B5F9F8B5452C9B40BC8F93F95E17BFF3CCF37DF29E9B0E6177A6F88AA6</t>
+  </si>
+  <si>
+    <t>FD8DBE89C816A6351A7B24A6F6EADEF17513893BF7A84709185DD2141CC64DA3</t>
+  </si>
+  <si>
+    <t>22A712CA438E9996606A08BE38F02B6CB02E46AABB261DC4B461354F1F5C5638</t>
+  </si>
+  <si>
+    <t>6BBD59CDC3D8CC46AD409201549946D31969F1FD1673B4D77983842DE1E5A0B0</t>
+  </si>
+  <si>
+    <t>0F2C4339701C93CA8B623217BE36A35242D87408C3CC2225B26564E00BC165C1</t>
+  </si>
+  <si>
+    <t>6BD85D0289861DB28F0CB3B1F19E6D6B83C7F52EC1E6F29FD1BEC8D5C50F6BFC</t>
+  </si>
+  <si>
+    <t>DE91EC01F136F258E24E7A5399824BD6746C875582B9D768D04E05E20072991D</t>
+  </si>
+  <si>
+    <t>8F840CA968581BC8CB41BC17F99E4C00CEC10C3DB99FF7505D60CD42F702F689</t>
+  </si>
+  <si>
+    <t>5D15711293816D9B1D0D0862B951C77C923BD43B4E8809D75A8D9358C080FDF8</t>
+  </si>
+  <si>
+    <t>A32084E3F499E5F3FBC0161A158771B929C904EA96E00889453BE9B9C03AC291</t>
+  </si>
+  <si>
+    <t>B9429FB52E9C9BC98A6727B928EA505C93085933EE2C736D72031226070ABC9A</t>
+  </si>
+  <si>
+    <t>A9D9BD2DAC349BEE0DF2D56B82B423629BB6AD848D4167E019AF9F1ADD79565A</t>
+  </si>
+  <si>
+    <t>065C8A41FC9019046019BEC3DB518A131DEFF2D6A95A0B246866C0B337160B25</t>
+  </si>
+  <si>
+    <t>47B151ED2E7ADF32829F28668402B87AE7A6A9FF38215D0C5481C62B716F4C5F</t>
+  </si>
+  <si>
+    <t>DF21DAE7A2E9CA10B2DC621B3406BC8A0AC9E5628B83D76558DDDD97FC25CEA5</t>
+  </si>
+  <si>
+    <t>6E075E396E3A2CCBD2AB13AC824462B8A1D9F48BD16500B4FA3C50AD99B26D87</t>
+  </si>
+  <si>
+    <t>1FB2B3ABB1DA5065DCD10314EAD07FA0DBE82A23835367B081A18BE4A3033014</t>
+  </si>
+  <si>
+    <t>47D1B3C706FCD51F11338BDEADC0273D5ED4B4A0CFDE93082B283753754B1534</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -1139,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1218,7 +1380,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1237,10 +1399,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1419,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1276,10 +1438,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1458,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1315,10 +1477,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1497,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1354,10 +1516,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1371,13 +1533,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1388,25 +1550,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1420,13 +1596,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1437,25 +1613,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1469,13 +1659,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1486,25 +1676,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1518,13 +1722,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1535,25 +1739,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1567,13 +1785,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1584,25 +1802,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1616,13 +1848,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1633,25 +1865,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1914,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1703,13 +1949,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1720,25 +1966,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1752,13 +2028,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1769,25 +2045,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1819,12 +2125,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1856,12 +2162,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +2184,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1893,12 +2199,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1930,12 +2236,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1949,13 +2255,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8583333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0083333333333" style="1" customWidth="1"/>
@@ -1974,13 +2280,24 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2314,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2018,21 +2335,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2366,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2070,21 +2387,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2418,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2122,21 +2439,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2470,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2175,21 +2492,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2523,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2225,10 +2542,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2562,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2264,10 +2581,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
